--- a/Отчет.xlsx
+++ b/Отчет.xlsx
@@ -469,7 +469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -489,7 +489,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 77 дней.</t>
+          <t>До дедлайна осталось 62 дней.</t>
         </is>
       </c>
     </row>

--- a/Отчет.xlsx
+++ b/Отчет.xlsx
@@ -517,7 +517,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>До дедлайна осталось 62 дней.</t>
+          <t>До дедлайна осталось 57 дней.</t>
         </is>
       </c>
     </row>
